--- a/3.xlsx
+++ b/3.xlsx
@@ -1,194 +1,656 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\功能测试\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{EBAD211E-8BF8-4BEA-A7D1-7C7F72C67196}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B237D36-2C32-4613-9C39-EF6593BC9E26}"/>
+    <workbookView windowWidth="28800" windowHeight="12620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>测试点编号</t>
+  </si>
+  <si>
+    <t>测试点描述</t>
+  </si>
   <si>
     <t>注册功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击注册按钮，显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册按钮显示注册对话框</t>
+  </si>
+  <si>
+    <t>对输入的邮箱和手机号进行验证是否可用</t>
+  </si>
+  <si>
+    <t>判断验证码是否输入正确</t>
+  </si>
+  <si>
+    <t>点击注册跳转首页</t>
   </si>
   <si>
     <t>登录功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>判断输入的邮箱手机号是否符合规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>账号为空时点击登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>账号错误时点击登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码为空时点击登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码错误时点击登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>账号密码都为空时点击登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动登陆功能是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击忘记密码跳转到找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用qq登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用微信登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用微博登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用慕课网app扫描二维码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在搜索页面输入任意搜索信息可以进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以单击热门搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击搜索可以跳转到任意的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索完成后显示搜到的数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下载APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鼠标移动到对应图标显示二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扫描二维码可以跳转到下载页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击图标跳转到介绍页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>APP介绍页面包含手机和pad两个tab页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击苹果商店下载跳转到对应的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击安卓下载直接开始下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击pad页面显示app的pad介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在介绍叶爱民点击下载显示跳转到对应的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>测试背景</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>重要级</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>编写人</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>点击注册按钮弹出注册对话框</t>
+  </si>
+  <si>
+    <t>测试注册功能完善</t>
+  </si>
+  <si>
+    <t>该功能已经开发完成并且通过了开发自验证</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>1、进入慕课网
+2、点击注册按钮</t>
+  </si>
+  <si>
+    <t>弹出注册对话框</t>
+  </si>
+  <si>
+    <t>使用邮箱注册成功</t>
+  </si>
+  <si>
+    <t>输入的账号未注册</t>
+  </si>
+  <si>
+    <t>账号:mukewang@qq.com
+密码:qaz145925</t>
+  </si>
+  <si>
+    <t>1、进入慕课网
+2、点击注册按钮
+3、输入邮箱地址
+4、输入密码
+5、输入正确的验证码
+6、点击注册</t>
+  </si>
+  <si>
+    <t>跳转到注册成功,提示已发送邮件页面</t>
+  </si>
+  <si>
+    <t>使用错误的邮箱注册失败</t>
+  </si>
+  <si>
+    <t>账号:慕课网
+密码:qaz145925</t>
+  </si>
+  <si>
+    <t>提示请输入正确的邮箱地址</t>
+  </si>
+  <si>
+    <t>注册时输入不符合要求的密码注册失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账号:mukewang@qq.com
+密码:12345
+账号:mukewang@qq.com
+密码:12345678912345678
+账号:mukewang@qq.com
+密码:    </t>
+  </si>
+  <si>
+    <t>提示密码的设计格式</t>
+  </si>
+  <si>
+    <t>使用手机号注册成功</t>
+  </si>
+  <si>
+    <t>账号:13813888888</t>
+  </si>
+  <si>
+    <t>1、进入慕课网
+2、点击注册按钮
+3、输入手机号
+4、输入正确的验证码
+5、点击注册</t>
+  </si>
+  <si>
+    <t>跳转到输入手机验证码界面</t>
+  </si>
+  <si>
+    <t>使用错误的手机号注册失败</t>
+  </si>
+  <si>
+    <t>账号:1381388888</t>
+  </si>
+  <si>
+    <t>提示请输入正确的手机号</t>
+  </si>
+  <si>
+    <t>判断验证码输入错误时不能注册</t>
+  </si>
+  <si>
+    <t>1、进入慕课网
+2、点击注册按钮
+3、输入手机号
+4、输入错误的验证码
+5、点击注册</t>
+  </si>
+  <si>
+    <t>提示验证码错误</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -196,28 +658,356 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +1056,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,26 +1089,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,23 +1124,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,288 +1265,668 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F3D0C9-9E35-4705-85AF-35F120A08B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11.71875" customWidth="1"/>
+    <col min="2" max="2" width="12.2421875" customWidth="1"/>
     <col min="3" max="3" width="67.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" ht="16.8" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" ht="16.8" spans="1:3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" ht="16.8" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" ht="16.8" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C26" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="C31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
+  <cols>
+    <col min="1" max="1" width="12.3671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.0625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8359375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="93" spans="1:13">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="140" spans="1:13">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" ht="140" spans="1:13">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" ht="140" spans="1:13">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" ht="116" spans="1:13">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="116" spans="1:13">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" ht="116" spans="1:13">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>